--- a/patient_data/patient_8.xlsx
+++ b/patient_data/patient_8.xlsx
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -954,16 +954,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1416,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1493,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1872,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -1904,44 +1904,44 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" t="n">
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
@@ -1949,16 +1949,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
